--- a/Admins/Composer/exported_data.xlsx
+++ b/Admins/Composer/exported_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -26,10 +26,31 @@
     <t>Amount Paid</t>
   </si>
   <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>2023-11-19</t>
+  </si>
+  <si>
+    <t>2023-11-12</t>
+  </si>
+  <si>
+    <t>2023-11-11</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
     <t>2023-09-12</t>
-  </si>
-  <si>
-    <t>ONLINE</t>
   </si>
 </sst>
 </file>
@@ -369,7 +390,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,6 +417,215 @@
         <v>4</v>
       </c>
       <c r="C2">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>3950.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>2150.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>45000.0</v>
       </c>
     </row>
